--- a/runs/run483/NotionalETEOutput483.xlsx
+++ b/runs/run483/NotionalETEOutput483.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND1_State_Update</t>
+    <t>Missile_SOMERSAULT2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND1_476.MISSILE_HIGHWIND1_476</t>
+    <t>MISSILE_SOMERSAULT2_488.MISSILE_SOMERSAULT2_488</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND1</t>
+    <t>MISSILE_SOMERSAULT2</t>
   </si>
 </sst>
 </file>
@@ -471,19 +471,19 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>215.9617565807058</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-122.9147822018236</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>985.1154107268919</v>
       </c>
       <c r="I2">
-        <v>-1333.640303299899</v>
+        <v>-751.5558501015614</v>
       </c>
       <c r="J2">
-        <v>1379.190523248983</v>
+        <v>1802.575846592021</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -506,22 +506,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>215.9617565807058</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-122.9147822018236</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>985.1154107268919</v>
       </c>
       <c r="I3">
-        <v>-1307.310692578956</v>
+        <v>-736.7181364247491</v>
       </c>
       <c r="J3">
-        <v>1345.640618531418</v>
+        <v>1758.72675766638</v>
       </c>
       <c r="K3">
-        <v>290.4159326302501</v>
+        <v>387.3773579164634</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,22 +541,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>215.9617565807058</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-122.9147822018236</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>985.1154107268919</v>
       </c>
       <c r="I4">
-        <v>-1280.332739416808</v>
+        <v>-721.5150576990916</v>
       </c>
       <c r="J4">
-        <v>1312.090713813854</v>
+        <v>1714.87766874074</v>
       </c>
       <c r="K4">
-        <v>566.3503956407113</v>
+        <v>755.4383050931498</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,22 +576,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>215.9617565807058</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-122.9147822018236</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>985.1154107268919</v>
       </c>
       <c r="I5">
-        <v>-1252.690478977304</v>
+        <v>-705.9376171463906</v>
       </c>
       <c r="J5">
-        <v>1278.540809096289</v>
+        <v>1671.028579815099</v>
       </c>
       <c r="K5">
-        <v>827.8033890313856</v>
+        <v>1104.182841530062</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,22 +611,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>215.9617565807058</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-122.9147822018236</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>985.1154107268919</v>
       </c>
       <c r="I6">
-        <v>-1224.367553304891</v>
+        <v>-689.9765964510621</v>
       </c>
       <c r="J6">
-        <v>1244.990904378725</v>
+        <v>1627.179490889458</v>
       </c>
       <c r="K6">
-        <v>1074.774912802271</v>
+        <v>1433.610967227197</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,22 +646,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>215.9617565807058</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-122.9147822018236</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>985.1154107268919</v>
       </c>
       <c r="I7">
-        <v>-1195.347201644408</v>
+        <v>-673.6225503049805</v>
       </c>
       <c r="J7">
-        <v>1211.44099966116</v>
+        <v>1583.330401963817</v>
       </c>
       <c r="K7">
-        <v>1307.264966953371</v>
+        <v>1743.722682184558</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,22 +681,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>215.9617565807058</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-122.9147822018236</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>985.1154107268919</v>
       </c>
       <c r="I8">
-        <v>-1165.612250522519</v>
+        <v>-656.8658008179984</v>
       </c>
       <c r="J8">
-        <v>1177.891094943595</v>
+        <v>1539.481313038176</v>
       </c>
       <c r="K8">
-        <v>1525.273551484682</v>
+        <v>2034.517986402143</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,22 +716,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>215.9617565807058</v>
       </c>
       <c r="G9">
-        <v>-106.8414774962172</v>
+        <v>-122.9147822018236</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>985.1154107268919</v>
       </c>
       <c r="I9">
-        <v>-1135.145103584908</v>
+        <v>-639.6964317908263</v>
       </c>
       <c r="J9">
-        <v>1144.34119022603</v>
+        <v>1495.632224112535</v>
       </c>
       <c r="K9">
-        <v>1728.800666396205</v>
+        <v>2305.996879879953</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>160.5179941153453</v>
+        <v>215.9617565807058</v>
       </c>
       <c r="G10">
-        <v>-89.19894217185484</v>
+        <v>-102.6180918368036</v>
       </c>
       <c r="H10">
-        <v>685.5714906551696</v>
+        <v>985.1154107268919</v>
       </c>
       <c r="I10">
-        <v>-1103.927731183219</v>
+        <v>-622.10428284689</v>
       </c>
       <c r="J10">
-        <v>1110.791285508466</v>
+        <v>1451.783135186894</v>
       </c>
       <c r="K10">
-        <v>1917.84631168794</v>
+        <v>2558.159362617986</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>124.5806888942518</v>
+        <v>167.6115164403552</v>
       </c>
       <c r="G11">
-        <v>-71.55640684749245</v>
+        <v>-82.32140147178347</v>
       </c>
       <c r="H11">
-        <v>844.6194632383425</v>
+        <v>1213.655557118947</v>
       </c>
       <c r="I11">
-        <v>-1071.941659705594</v>
+        <v>-604.0789434196894</v>
       </c>
       <c r="J11">
-        <v>1077.241380790901</v>
+        <v>1407.934046261254</v>
       </c>
       <c r="K11">
-        <v>2092.410487359887</v>
+        <v>2791.005434616243</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>103.4693248866993</v>
+        <v>139.2081758677741</v>
       </c>
       <c r="G12">
-        <v>-53.91387152313009</v>
+        <v>-62.02471110676341</v>
       </c>
       <c r="H12">
-        <v>939.3565697309996</v>
+        <v>1349.785756296866</v>
       </c>
       <c r="I12">
-        <v>-1039.16796064448</v>
+        <v>-585.6097465921023</v>
       </c>
       <c r="J12">
-        <v>1043.691476073336</v>
+        <v>1364.084957335613</v>
       </c>
       <c r="K12">
-        <v>2252.493193412048</v>
+        <v>3004.535095874726</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>90.14228311710627</v>
+        <v>121.2779035238674</v>
       </c>
       <c r="G13">
-        <v>-36.27133619876771</v>
+        <v>-41.72802074174333</v>
       </c>
       <c r="H13">
-        <v>1007.058776705057</v>
+        <v>1447.068808960898</v>
       </c>
       <c r="I13">
-        <v>-1005.587239395235</v>
+        <v>-566.685762783985</v>
       </c>
       <c r="J13">
-        <v>1010.141571355772</v>
+        <v>1320.235868409972</v>
       </c>
       <c r="K13">
-        <v>2398.09442984442</v>
+        <v>3198.748346393434</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>80.84805828463058</v>
+        <v>108.7734043744753</v>
       </c>
       <c r="G14">
-        <v>-18.62880087440533</v>
+        <v>-21.43133037672325</v>
       </c>
       <c r="H14">
-        <v>1059.778449004272</v>
+        <v>1522.823069950946</v>
       </c>
       <c r="I14">
-        <v>-971.1796237789248</v>
+        <v>-547.295793284339</v>
       </c>
       <c r="J14">
-        <v>976.591666638207</v>
+        <v>1276.386779484331</v>
       </c>
       <c r="K14">
-        <v>2529.214196657005</v>
+        <v>3373.645186172365</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>73.91428822932666</v>
+        <v>99.44467354200484</v>
       </c>
       <c r="G15">
-        <v>-0.9862655500429656</v>
+        <v>-1.13464001170318</v>
       </c>
       <c r="H15">
-        <v>1102.95994992786</v>
+        <v>1584.871685737888</v>
       </c>
       <c r="I15">
-        <v>-935.9247522824891</v>
+        <v>-527.4283636242091</v>
       </c>
       <c r="J15">
-        <v>943.0417619206424</v>
+        <v>1232.53769055869</v>
       </c>
       <c r="K15">
-        <v>2645.852493849801</v>
+        <v>3529.225615211521</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>68.49304831836103</v>
+        <v>92.15090874965225</v>
       </c>
       <c r="G16">
-        <v>16.65626977431942</v>
+        <v>19.1620503533169</v>
       </c>
       <c r="H16">
-        <v>1139.531529113346</v>
+        <v>1637.422333980002</v>
       </c>
       <c r="I16">
-        <v>-899.8017620093406</v>
+        <v>-507.0717167863986</v>
       </c>
       <c r="J16">
-        <v>909.4918572030778</v>
+        <v>1188.688601633049</v>
       </c>
       <c r="K16">
-        <v>2748.00932142281</v>
+        <v>3665.489633510901</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>64.1068704969686</v>
+        <v>86.24972195621046</v>
       </c>
       <c r="G17">
-        <v>34.2988050986818</v>
+        <v>39.45874071833698</v>
       </c>
       <c r="H17">
-        <v>1171.250713379549</v>
+        <v>1683.000450430645</v>
       </c>
       <c r="I17">
-        <v>-862.7892763332574</v>
+        <v>-486.2138062479785</v>
       </c>
       <c r="J17">
-        <v>875.9419524855132</v>
+        <v>1144.839512707409</v>
       </c>
       <c r="K17">
-        <v>2835.684679376031</v>
+        <v>3782.437241070505</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>60.46478002250067</v>
+        <v>81.34963420700306</v>
       </c>
       <c r="G18">
-        <v>51.94134042304416</v>
+        <v>59.75543108335705</v>
       </c>
       <c r="H18">
-        <v>1199.25561435601</v>
+        <v>1723.241417133371</v>
       </c>
       <c r="I18">
-        <v>-824.8653922482632</v>
+        <v>-464.8422888514759</v>
       </c>
       <c r="J18">
-        <v>842.3920477679484</v>
+        <v>1100.990423781768</v>
       </c>
       <c r="K18">
-        <v>2908.878567709466</v>
+        <v>3880.068437890335</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>57.37838237864848</v>
+        <v>77.19717852534345</v>
       </c>
       <c r="G19">
-        <v>69.58387574740655</v>
+        <v>80.05212144837715</v>
       </c>
       <c r="H19">
-        <v>1224.325636124766</v>
+        <v>1759.26517997692</v>
       </c>
       <c r="I19">
-        <v>-786.0076674070094</v>
+        <v>-442.9445175005197</v>
       </c>
       <c r="J19">
-        <v>808.8421430503837</v>
+        <v>1057.141334856127</v>
       </c>
       <c r="K19">
-        <v>2967.590986423112</v>
+        <v>3958.383223970388</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>54.71975191855449</v>
+        <v>73.62024307069102</v>
       </c>
       <c r="G20">
-        <v>87.22641107176892</v>
+        <v>100.3488118133972</v>
       </c>
       <c r="H20">
-        <v>1247.017987509487</v>
+        <v>1791.872406735073</v>
       </c>
       <c r="I20">
-        <v>-746.1931068399912</v>
+        <v>-420.5075336756265</v>
       </c>
       <c r="J20">
-        <v>775.2922383328191</v>
+        <v>1013.292245930486</v>
       </c>
       <c r="K20">
-        <v>3011.821935516969</v>
+        <v>4017.381599310666</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>52.39863015084546</v>
+        <v>70.49739359232071</v>
       </c>
       <c r="G21">
-        <v>104.8689463961313</v>
+        <v>120.6455021784173</v>
       </c>
       <c r="H21">
-        <v>1267.74485943798</v>
+        <v>1821.655385215418</v>
       </c>
       <c r="I21">
-        <v>-705.3981493477344</v>
+        <v>-397.518059765692</v>
       </c>
       <c r="J21">
-        <v>741.7423336152544</v>
+        <v>969.4431570048453</v>
       </c>
       <c r="K21">
-        <v>3041.57141499104</v>
+        <v>4057.063563911168</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>50.34929900987363</v>
+        <v>67.74021265781568</v>
       </c>
       <c r="G22">
-        <v>122.5114817204937</v>
+        <v>140.9421925434374</v>
       </c>
       <c r="H22">
-        <v>1286.819754885955</v>
+        <v>1849.064595954108</v>
       </c>
       <c r="I22">
-        <v>-663.5986535579032</v>
+        <v>-373.9624912106534</v>
       </c>
       <c r="J22">
-        <v>708.1924288976899</v>
+        <v>925.5940680792045</v>
       </c>
       <c r="K22">
-        <v>3056.839424845323</v>
+        <v>4077.429117771896</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>48.52263400169127</v>
+        <v>65.28260791371393</v>
       </c>
       <c r="G23">
-        <v>140.1540170448561</v>
+        <v>161.2388829084574</v>
       </c>
       <c r="H23">
-        <v>1304.48667782045</v>
+        <v>1874.450654563783</v>
       </c>
       <c r="I23">
-        <v>-620.7698836390783</v>
+        <v>-349.8268884506726</v>
       </c>
       <c r="J23">
-        <v>674.6425241801251</v>
+        <v>881.7449791535636</v>
       </c>
       <c r="K23">
-        <v>3057.625965079817</v>
+        <v>4078.478260892846</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>46.88108700846261</v>
+        <v>63.07406192408056</v>
       </c>
       <c r="G24">
-        <v>157.7965523692184</v>
+        <v>181.5355732734776</v>
       </c>
       <c r="H24">
-        <v>1320.939269707539</v>
+        <v>1898.091809476574</v>
       </c>
       <c r="I24">
-        <v>-576.8864946627485</v>
+        <v>-325.0969686770749</v>
       </c>
       <c r="J24">
-        <v>641.0926194625604</v>
+        <v>837.8958902279227</v>
       </c>
       <c r="K24">
-        <v>3043.931035694525</v>
+        <v>4060.210993274022</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>45.39540418826779</v>
+        <v>61.07521641557955</v>
       </c>
       <c r="G25">
-        <v>175.4390876935808</v>
+        <v>201.8322636384976</v>
       </c>
       <c r="H25">
-        <v>1336.333781576209</v>
+        <v>1920.21258183826</v>
       </c>
       <c r="I25">
-        <v>-531.9225176048537</v>
+        <v>-299.7580973801611</v>
       </c>
       <c r="J25">
-        <v>607.5427147449958</v>
+        <v>794.046801302282</v>
       </c>
       <c r="K25">
-        <v>3015.754636689444</v>
+        <v>4022.627314915422</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>44.04241257156694</v>
+        <v>59.25489435267288</v>
       </c>
       <c r="G26">
-        <v>193.0816230179432</v>
+        <v>222.1289540035177</v>
       </c>
       <c r="H26">
-        <v>1350.798120987859</v>
+        <v>1940.996765332799</v>
       </c>
       <c r="I26">
-        <v>-485.8513439780089</v>
+        <v>-273.7952796888951</v>
       </c>
       <c r="J26">
-        <v>573.992810027431</v>
+        <v>750.197712376641</v>
       </c>
       <c r="K26">
-        <v>2973.096768064576</v>
+        <v>3965.727225817046</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>42.80348749213302</v>
+        <v>57.58803801110799</v>
       </c>
       <c r="G27">
-        <v>210.7241583423055</v>
+        <v>242.4256443685377</v>
       </c>
       <c r="H27">
-        <v>1364.438318135677</v>
+        <v>1960.596717487791</v>
       </c>
       <c r="I27">
-        <v>-438.6457100853057</v>
+        <v>-247.193151497336</v>
       </c>
       <c r="J27">
-        <v>540.4429053098663</v>
+        <v>706.3486234510001</v>
       </c>
       <c r="K27">
-        <v>2915.95742981992</v>
+        <v>3889.510725978896</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>41.66346667643468</v>
+        <v>56.05424798804138</v>
       </c>
       <c r="G28">
-        <v>228.3666936666679</v>
+        <v>262.7223347335578</v>
       </c>
       <c r="H28">
-        <v>1377.343247095221</v>
+        <v>1979.140143761589</v>
       </c>
       <c r="I28">
-        <v>-390.2776808863816</v>
+        <v>-219.935970372569</v>
       </c>
       <c r="J28">
-        <v>506.8930005923017</v>
+        <v>662.4995345253594</v>
       </c>
       <c r="K28">
-        <v>2844.336621955476</v>
+        <v>3793.977815400969</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>40.60986500753059</v>
+        <v>54.6367267412372</v>
       </c>
       <c r="G29">
-        <v>246.0092289910303</v>
+        <v>283.0190250985779</v>
       </c>
       <c r="H29">
-        <v>1389.588138418676</v>
+        <v>1996.735144880851</v>
       </c>
       <c r="I29">
-        <v>-340.7186334662045</v>
+        <v>-192.0076062387512</v>
       </c>
       <c r="J29">
-        <v>473.343095874737</v>
+        <v>618.6504455997185</v>
       </c>
       <c r="K29">
-        <v>2758.234344471245</v>
+        <v>3679.128494083267</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>39.6322963575616</v>
+        <v>53.32150071945033</v>
       </c>
       <c r="G30">
-        <v>263.6517643153927</v>
+        <v>303.3157154635979</v>
       </c>
       <c r="H30">
-        <v>1401.237236361276</v>
+        <v>2013.474035077927</v>
       </c>
       <c r="I30">
-        <v>-289.9392400967933</v>
+        <v>-163.3915318317621</v>
       </c>
       <c r="J30">
-        <v>439.7931911571723</v>
+        <v>574.8013566740776</v>
       </c>
       <c r="K30">
-        <v>2657.650597367225</v>
+        <v>3544.962762025788</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>38.72204094905516</v>
+        <v>52.09683828804169</v>
       </c>
       <c r="G31">
-        <v>281.2942996397551</v>
+        <v>323.6124058286181</v>
       </c>
       <c r="H31">
-        <v>1412.345839127756</v>
+        <v>2029.436273773769</v>
       </c>
       <c r="I31">
-        <v>-237.9094508818457</v>
+        <v>-134.0708129188066</v>
       </c>
       <c r="J31">
-        <v>406.2432864396077</v>
+        <v>530.9522677484368</v>
       </c>
       <c r="K31">
-        <v>2542.585380643419</v>
+        <v>3391.480619228535</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>37.87171687332717</v>
+        <v>50.95280778810206</v>
       </c>
       <c r="G32">
-        <v>298.9368349641175</v>
+        <v>343.9090961936382</v>
       </c>
       <c r="H32">
-        <v>1422.961886444398</v>
+        <v>2044.690746801281</v>
       </c>
       <c r="I32">
-        <v>-184.5984759740085</v>
+        <v>-104.0280982771865</v>
       </c>
       <c r="J32">
-        <v>372.693381722043</v>
+        <v>487.1031788227959</v>
       </c>
       <c r="K32">
-        <v>2413.038694299824</v>
+        <v>3218.682065691506</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>37.07502738922167</v>
+        <v>49.88093755084279</v>
       </c>
       <c r="G33">
-        <v>316.5793702884798</v>
+        <v>364.2057865586582</v>
       </c>
       <c r="H33">
-        <v>1433.12720987618</v>
+        <v>2059.297563018364</v>
       </c>
       <c r="I33">
-        <v>-129.9747673542631</v>
+        <v>-73.24560942630691</v>
       </c>
       <c r="J33">
-        <v>339.1434770044784</v>
+        <v>443.2540898971553</v>
       </c>
       <c r="K33">
-        <v>2269.010538336442</v>
+        <v>3026.567101414702</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>36.326564182657</v>
+        <v>48.87395120195045</v>
       </c>
       <c r="G34">
-        <v>334.2219056128422</v>
+        <v>384.5024769236783</v>
       </c>
       <c r="H34">
-        <v>1442.878528369961</v>
+        <v>2073.309484829683</v>
       </c>
       <c r="I34">
-        <v>-74.00600016264681</v>
+        <v>-41.70513010684486</v>
       </c>
       <c r="J34">
-        <v>305.5935722869137</v>
+        <v>399.4050009715143</v>
       </c>
       <c r="K34">
-        <v>2110.500912753272</v>
+        <v>2815.135726398121</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>35.62165251449932</v>
+        <v>47.92555932271866</v>
       </c>
       <c r="G35">
-        <v>351.8644409372046</v>
+        <v>404.7991672886984</v>
       </c>
       <c r="H35">
-        <v>1452.24824888947</v>
+        <v>2086.773078639791</v>
       </c>
       <c r="I35">
-        <v>-16.65905356925891</v>
+        <v>-9.387995500850115</v>
       </c>
       <c r="J35">
-        <v>272.0436675693489</v>
+        <v>355.5559120458734</v>
       </c>
       <c r="K35">
-        <v>1937.509817550314</v>
+        <v>2584.387940641765</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>34.95622811375855</v>
+        <v>47.03029382150404</v>
       </c>
       <c r="G36">
-        <v>369.506976261567</v>
+        <v>425.0958576537185</v>
       </c>
       <c r="H36">
-        <v>1461.265116212971</v>
+        <v>2099.72964856421</v>
       </c>
       <c r="I36">
-        <v>42.10000882576787</v>
+        <v>23.72491881359867</v>
       </c>
       <c r="J36">
-        <v>238.4937628517844</v>
+        <v>311.7068231202327</v>
       </c>
       <c r="K36">
-        <v>1750.037252727569</v>
+        <v>2334.323744145634</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>34.32673840417463</v>
+        <v>46.18337504345394</v>
       </c>
       <c r="G37">
-        <v>387.1495115859293</v>
+        <v>445.3925480187385</v>
       </c>
       <c r="H37">
-        <v>1469.954744759754</v>
+        <v>2112.21600062466</v>
       </c>
       <c r="I37">
-        <v>102.3059590749259</v>
+        <v>57.65320817971813</v>
       </c>
       <c r="J37">
-        <v>204.9438581342197</v>
+        <v>267.8577341945918</v>
       </c>
       <c r="K37">
-        <v>1548.083218285035</v>
+        <v>2064.943136909727</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>33.73006257910048</v>
+        <v>45.38060423883213</v>
       </c>
       <c r="G38">
-        <v>404.7920469102917</v>
+        <v>465.6892383837586</v>
       </c>
       <c r="H38">
-        <v>1478.340057248736</v>
+        <v>2124.265073068969</v>
       </c>
       <c r="I38">
-        <v>163.9944254605114</v>
+        <v>92.41695045802471</v>
       </c>
       <c r="J38">
-        <v>171.3939534166551</v>
+        <v>224.0086452689511</v>
       </c>
       <c r="K38">
-        <v>1331.647714222715</v>
+        <v>1776.246118934046</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>33.1634464179433</v>
+        <v>44.61827586471483</v>
       </c>
       <c r="G39">
-        <v>422.4345822346541</v>
+        <v>485.9859287487787</v>
       </c>
       <c r="H39">
-        <v>1486.441649113896</v>
+        <v>2135.906460009026</v>
       </c>
       <c r="I39">
-        <v>227.2019135784928</v>
+        <v>128.0367179078778</v>
       </c>
       <c r="J39">
-        <v>137.8440486990904</v>
+        <v>180.1595563433102</v>
       </c>
       <c r="K39">
-        <v>1100.730740540605</v>
+        <v>1468.232690218587</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>32.62444873607538</v>
+        <v>43.89310553841808</v>
       </c>
       <c r="G40">
-        <v>440.0771175590164</v>
+        <v>506.2826191137987</v>
       </c>
       <c r="H40">
-        <v>1494.278093262953</v>
+        <v>2147.166849336417</v>
       </c>
       <c r="I40">
-        <v>291.9658279415573</v>
+        <v>164.5335893615986</v>
       </c>
       <c r="J40">
-        <v>104.2941439815256</v>
+        <v>136.3104674176692</v>
       </c>
       <c r="K40">
-        <v>855.3322972387089</v>
+        <v>1140.902850763353</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>32.11089709227346</v>
+        <v>43.20217044605283</v>
       </c>
       <c r="G41">
-        <v>457.7196528833788</v>
+        <v>526.5793094788188</v>
       </c>
       <c r="H41">
-        <v>1501.866196528069</v>
+        <v>2158.070391223067</v>
       </c>
       <c r="I41">
-        <v>358.3244941141026</v>
+        <v>201.9291626983607</v>
       </c>
       <c r="J41">
-        <v>70.74423926396105</v>
+        <v>92.46137849202853</v>
       </c>
       <c r="K41">
-        <v>595.4523843170251</v>
+        <v>794.2566005683444</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>31.62085092044078</v>
+        <v>42.54285973974917</v>
       </c>
       <c r="G42">
-        <v>475.3621882077412</v>
+        <v>546.8759998438388</v>
       </c>
       <c r="H42">
-        <v>1509.221216715774</v>
+        <v>2168.639010005904</v>
       </c>
       <c r="I42">
-        <v>426.3171813922948</v>
+        <v>240.2455676252447</v>
       </c>
       <c r="J42">
-        <v>37.19433454639633</v>
+        <v>48.61228956638761</v>
       </c>
       <c r="K42">
-        <v>321.0910017755528</v>
+        <v>428.2939396335591</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>31.15257065875776</v>
+        <v>41.9128330038527</v>
       </c>
       <c r="G43">
-        <v>493.0047235321036</v>
+        <v>567.1726902088591</v>
       </c>
       <c r="H43">
-        <v>1516.357047304295</v>
+        <v>2178.892669583217</v>
       </c>
       <c r="I43">
-        <v>495.9841260425866</v>
+        <v>279.5054787730068</v>
       </c>
       <c r="J43">
-        <v>3.644429828831593</v>
+        <v>4.763200640746693</v>
       </c>
       <c r="K43">
-        <v>32.24814961429293</v>
+        <v>43.01486795899851</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>30.70449175665862</v>
+        <v>41.30998528377374</v>
       </c>
       <c r="G44">
-        <v>510.647258856466</v>
+        <v>587.4693805738791</v>
       </c>
       <c r="H44">
-        <v>1523.286375407957</v>
+        <v>2188.849600397794</v>
       </c>
       <c r="I44">
-        <v>567.3665551124774</v>
+        <v>319.7321291143262</v>
       </c>
       <c r="J44">
-        <v>-29.90547488873298</v>
+        <v>-39.08588828489402</v>
       </c>
       <c r="K44">
-        <v>-271.0761721667538</v>
+        <v>-361.5806144553366</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>30.27520267440775</v>
+        <v>40.73241748650115</v>
       </c>
       <c r="G45">
-        <v>528.2897941808283</v>
+        <v>607.7660709388991</v>
       </c>
       <c r="H45">
-        <v>1530.020817521493</v>
+        <v>2198.526494491439</v>
       </c>
       <c r="I45">
-        <v>640.506710827584</v>
+        <v>360.9493237124611</v>
       </c>
       <c r="J45">
-        <v>-63.45537960629771</v>
+        <v>-82.93497721053494</v>
       </c>
       <c r="K45">
-        <v>-588.8819635675891</v>
+        <v>-785.4925076094484</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>29.86342617033935</v>
+        <v>40.17841120435578</v>
       </c>
       <c r="G46">
-        <v>545.9323295051908</v>
+        <v>628.0627613039193</v>
       </c>
       <c r="H46">
-        <v>1536.571036692575</v>
+        <v>2207.938673873206</v>
       </c>
       <c r="I46">
-        <v>715.4478755894661</v>
+        <v>403.1814538084515</v>
       </c>
       <c r="J46">
-        <v>-97.00528432386244</v>
+        <v>-126.7840661361759</v>
       </c>
       <c r="K46">
-        <v>-921.169224588213</v>
+        <v>-1228.720811503337</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>29.46800331061242</v>
+        <v>39.64640720163052</v>
       </c>
       <c r="G47">
-        <v>563.5748648295531</v>
+        <v>648.3594516689393</v>
       </c>
       <c r="H47">
-        <v>1542.94684409059</v>
+        <v>2217.100236466202</v>
       </c>
       <c r="I47">
-        <v>792.2343975890021</v>
+        <v>446.4535112552085</v>
       </c>
       <c r="J47">
-        <v>-130.5551890414272</v>
+        <v>-170.6331550618168</v>
       </c>
       <c r="K47">
-        <v>-1267.937955228624</v>
+        <v>-1691.265526137</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>29.08787974551643</v>
+        <v>39.1349869506594</v>
       </c>
       <c r="G48">
-        <v>581.2174001539154</v>
+        <v>668.6561420339593</v>
       </c>
       <c r="H48">
-        <v>1549.157287400635</v>
+        <v>2226.024183123209</v>
       </c>
       <c r="I48">
-        <v>870.9117170504713</v>
+        <v>490.7911033070286</v>
       </c>
       <c r="J48">
-        <v>-164.1050937589916</v>
+        <v>-214.4822439874573</v>
       </c>
       <c r="K48">
-        <v>-1629.18815548882</v>
+        <v>-2173.126651510435</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>28.72209388224802</v>
+        <v>38.642856719409</v>
       </c>
       <c r="G49">
-        <v>598.8599354782779</v>
+        <v>688.9528323989795</v>
       </c>
       <c r="H49">
-        <v>1555.210728041712</v>
+        <v>2234.722528583499</v>
       </c>
       <c r="I49">
-        <v>951.5263931218735</v>
+        <v>536.2204677732886</v>
       </c>
       <c r="J49">
-        <v>-197.6549984765563</v>
+        <v>-258.3313329130982</v>
       </c>
       <c r="K49">
-        <v>-2004.919825368806</v>
+        <v>-2674.304187623649</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>28.36976665208039</v>
+        <v>38.16883380417408</v>
       </c>
       <c r="G50">
-        <v>616.5024708026402</v>
+        <v>709.2495227639995</v>
       </c>
       <c r="H50">
-        <v>1561.114908862949</v>
+        <v>2243.206398747296</v>
       </c>
       <c r="I50">
-        <v>1034.126131427391</v>
+        <v>582.768488545281</v>
       </c>
       <c r="J50">
-        <v>-231.204903194121</v>
+        <v>-302.1804218387391</v>
       </c>
       <c r="K50">
-        <v>-2395.132964868581</v>
+        <v>-3194.79813447664</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>28.03009262402872</v>
+        <v>37.71183457385621</v>
       </c>
       <c r="G51">
-        <v>634.1450061270026</v>
+        <v>729.5462131290195</v>
       </c>
       <c r="H51">
-        <v>1566.87701369303</v>
+        <v>2251.486116243881</v>
       </c>
       <c r="I51">
-        <v>1118.759812298317</v>
+        <v>630.4627115053898</v>
       </c>
       <c r="J51">
-        <v>-264.7548079116858</v>
+        <v>-346.02951076438</v>
       </c>
       <c r="K51">
-        <v>-2799.827573988143</v>
+        <v>-3734.608492069406</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>27.70233226054359</v>
+        <v>37.2708640507327</v>
       </c>
       <c r="G52">
-        <v>651.787541451365</v>
+        <v>749.8429034940398</v>
       </c>
       <c r="H52">
-        <v>1572.503719891718</v>
+        <v>2259.571275944239</v>
       </c>
       <c r="I52">
-        <v>1205.477519699131</v>
+        <v>679.3313608280114</v>
       </c>
       <c r="J52">
-        <v>-298.3047126292505</v>
+        <v>-389.878599690021</v>
       </c>
       <c r="K52">
-        <v>-3219.003652727492</v>
+        <v>-4293.735260401946</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>27.38580514576398</v>
+        <v>36.84500679971256</v>
       </c>
       <c r="G53">
-        <v>669.4300767757273</v>
+        <v>770.1395938590598</v>
       </c>
       <c r="H53">
-        <v>1578.001244867677</v>
+        <v>2267.470811803727</v>
       </c>
       <c r="I53">
-        <v>1294.33057086586</v>
+        <v>729.4033556818682</v>
       </c>
       <c r="J53">
-        <v>-331.8546173468149</v>
+        <v>-433.7276886156615</v>
       </c>
       <c r="K53">
-        <v>-3652.661201086627</v>
+        <v>-4872.178439474259</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>27.07988404522888</v>
+        <v>36.43341893624108</v>
       </c>
       <c r="G54">
-        <v>687.0726121000897</v>
+        <v>790.4362842240798</v>
       </c>
       <c r="H54">
-        <v>1583.375387375291</v>
+        <v>2275.193056202534</v>
       </c>
       <c r="I54">
-        <v>1385.371546674263</v>
+        <v>780.7083273436116</v>
       </c>
       <c r="J54">
-        <v>-365.4045220643796</v>
+        <v>-477.5767775413024</v>
       </c>
       <c r="K54">
-        <v>-4100.800219065552</v>
+        <v>-5469.938029286352</v>
       </c>
     </row>
   </sheetData>
